--- a/20211028.xlsx
+++ b/20211028.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\教學\handout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="3135" windowWidth="23040" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="1.名稱設定" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.名稱設定'!$A$1:$E$42</definedName>
-    <definedName name="分公司">'4.Index &amp; Match'!$B$3:$B$10</definedName>
-    <definedName name="考績">'4.Index &amp; Match'!$E$3:$E$10</definedName>
-    <definedName name="業務員">'4.Index &amp; Match'!$C$3:$C$10</definedName>
-    <definedName name="業績">'4.Index &amp; Match'!$D$3:$D$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>金額</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -58,46 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>饅頭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>燒餅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>包子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>漢堡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>土司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三明治</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>早餐類型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐點名稱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>員工編號</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -106,31 +62,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>101</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>業務員</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -172,9 +103,6 @@
   <si>
     <t>業績</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉明哲</t>
   </si>
   <si>
     <t>(1)員工編號查業績</t>
@@ -311,15 +239,94 @@
   <si>
     <t>丁</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>饅頭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>燒餅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢堡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢堡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>土司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三明治</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐類型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐點名稱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饅頭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>燒餅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>土司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三明治</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
@@ -567,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,20 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,56 +684,78 @@
     <xf numFmtId="181" fontId="14" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="181" fontId="14" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="7" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="7" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2000,40 +2016,40 @@
       <c r="A1" s="10"/>
       <c r="B1" s="12"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="28"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="10"/>
       <c r="G1" s="13"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31">
+      <c r="B3" s="26">
         <v>1500</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="25"/>
       <c r="H3" s="2"/>
       <c r="I3" s="6"/>
       <c r="J3" s="18"/>
@@ -2043,7 +2059,7 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31">
+      <c r="B4" s="26">
         <v>3400</v>
       </c>
       <c r="H4" s="2"/>
@@ -2055,10 +2071,10 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31">
+      <c r="B5" s="26">
         <v>2400</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="15"/>
@@ -2070,15 +2086,15 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>1800</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="25"/>
       <c r="I6" s="6"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31">
+      <c r="B7" s="26">
         <v>5600</v>
       </c>
       <c r="H7" s="13"/>
@@ -2110,12 +2126,12 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
@@ -2149,12 +2165,12 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -2395,60 +2411,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="2.375" style="21" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="21" customWidth="1"/>
+    <col min="7" max="7" width="8" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="20"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="59"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="59">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="59">
+        <v>15</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="59"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="59">
+        <v>20</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="59">
+        <v>30</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="59">
+        <v>20</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="59">
+        <v>25</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="59"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="59" t="str">
+        <f t="shared" ref="H7:H19" si="0">IFERROR(VLOOKUP(G15,$B$8:$C$13,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F20:G20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2459,7 +2645,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2470,224 +2656,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>101</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="35">
+        <v>74000</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>102</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="36">
+        <v>89000</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>103</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="36">
+        <v>65000</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>104</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36">
+        <v>90000</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>105</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="36">
+        <v>86000</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>106</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="36">
+        <v>73000</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>107</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="36">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>108</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="40">
-        <v>74000</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="C9" s="36">
+        <v>82000</v>
+      </c>
+      <c r="E9" s="56" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="41">
-        <v>89000</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="41">
-        <v>65000</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="41">
-        <v>90000</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="41">
-        <v>86000</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="41">
-        <v>73000</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="41">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="41">
-        <v>82000</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
-      <c r="E10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="E10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="7"/>
-      <c r="E11" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="E11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -2905,18 +3085,7 @@
     <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F10">
-      <formula1>$B$2:$B$9</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2935,228 +3104,228 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="49" t="s">
+    </row>
+    <row r="3" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="44">
+        <v>74000</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="47">
+        <v>89000</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="47">
+        <v>65000</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="47">
+        <v>90000</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="47">
+        <v>86000</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="47">
+        <v>73000</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="47">
+        <v>84000</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="49" t="s">
+      <c r="H9" s="30"/>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="47">
+        <v>82000</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="51">
-        <v>74000</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="57"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="54">
-        <v>89000</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="54">
-        <v>65000</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="54">
-        <v>90000</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="54">
-        <v>86000</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="54">
-        <v>73000</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="54">
-        <v>84000</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="59">
+      <c r="M10" s="52">
         <v>0.2</v>
       </c>
-      <c r="N9" s="59">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="54">
-        <v>82000</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="N10" s="59">
+      <c r="N10" s="52">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="59">
+        <v>44</v>
+      </c>
+      <c r="M11" s="52">
         <v>0.2</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="59">
+        <v>45</v>
+      </c>
+      <c r="M12" s="52">
         <v>0.2</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="52">
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="59">
+        <v>46</v>
+      </c>
+      <c r="M13" s="52">
         <v>0.2</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="52">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M14" s="59">
+      <c r="M14" s="52">
         <v>1</v>
       </c>
     </row>

--- a/20211028.xlsx
+++ b/20211028.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\教學\handout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.名稱設定" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>金額</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -235,10 +235,6 @@
   <si>
     <t>圖塊比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中式</t>
@@ -574,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,21 +722,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,11 +732,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="14" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1995,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2020,12 +2013,12 @@
       <c r="E1" s="10"/>
       <c r="G1" s="13"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2038,12 +2031,12 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
@@ -2126,12 +2119,12 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
@@ -2165,12 +2158,12 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -2439,16 +2432,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19"/>
       <c r="H4"/>
@@ -2456,175 +2449,175 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F5" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="G5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="H5" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="C7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="59"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="59">
+        <v>65</v>
+      </c>
+      <c r="C8" s="54">
         <v>10</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="59">
+        <v>66</v>
+      </c>
+      <c r="C9" s="54">
         <v>15</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="59"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="59">
+        <v>53</v>
+      </c>
+      <c r="C10" s="54">
         <v>20</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="59">
+        <v>56</v>
+      </c>
+      <c r="C11" s="54">
         <v>30</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="59"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="59">
+        <v>67</v>
+      </c>
+      <c r="C12" s="54">
         <v>20</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="59"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="59">
+        <v>68</v>
+      </c>
+      <c r="C13" s="54">
         <v>25</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="59"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="59" t="str">
-        <f t="shared" ref="H7:H19" si="0">IFERROR(VLOOKUP(G15,$B$8:$C$13,2,FALSE),"")</f>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54" t="str">
+        <f t="shared" ref="H15:H19" si="0">IFERROR(VLOOKUP(G15,$B$8:$C$13,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="59" t="str">
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="59" t="str">
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="59" t="str">
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I18"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="59" t="str">
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I19"/>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
+      <c r="F20" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="57"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
@@ -2665,10 +2658,10 @@
       <c r="C1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
@@ -2722,10 +2715,10 @@
       <c r="C5" s="36">
         <v>90000</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
@@ -2778,10 +2771,10 @@
       <c r="C9" s="36">
         <v>82000</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -3094,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3131,8 +3124,8 @@
       <c r="D3" s="44">
         <v>74000</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>50</v>
+      <c r="E3" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="49" t="s">

--- a/20211028.xlsx
+++ b/20211028.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="1.名稱設定" sheetId="1" r:id="rId1"/>
@@ -1988,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3087,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
